--- a/REVER_DailyTracker_20200924.xlsx
+++ b/REVER_DailyTracker_20200924.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0823135B-9189-48BE-9F53-198E36F7964D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DAED5C-6AED-4B8A-82EF-50F1181376FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="20">
   <si>
     <t>No</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>Pickup delivery new update customer info passing to Job</t>
+  </si>
+  <si>
+    <t>QMVAR</t>
+  </si>
+  <si>
+    <t>DRS Count - Saw Discount with out discount</t>
   </si>
 </sst>
 </file>
@@ -93,7 +99,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +149,12 @@
       <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="7">
@@ -239,7 +251,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -309,6 +321,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -592,15 +608,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -624,7 +640,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" s="24" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="24" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="25"/>
       <c r="B2" s="26"/>
       <c r="C2" s="25"/>
@@ -701,15 +717,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="72.5546875" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="72.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -834,15 +850,15 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -941,19 +957,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -979,18 +995,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
+    <row r="2" spans="1:7">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="32">
+        <v>44098</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1060,15 +1082,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1167,19 +1189,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1292,15 +1314,15 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1392,15 +1414,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1503,15 +1525,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1614,15 +1636,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1725,15 +1747,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/REVER_DailyTracker_20200924.xlsx
+++ b/REVER_DailyTracker_20200924.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DAED5C-6AED-4B8A-82EF-50F1181376FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4765D361-937E-4486-8035-9740FAB18BDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="44">
   <si>
     <t>No</t>
   </si>
@@ -86,10 +86,82 @@
     <t>Pickup delivery new update customer info passing to Job</t>
   </si>
   <si>
+    <t xml:space="preserve"> Soniya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mr_Max Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">completed </t>
+  </si>
+  <si>
+    <t>Vastu &amp; Soniya</t>
+  </si>
+  <si>
+    <t>vastu Mobile and Mr_Max (Import) Migration</t>
+  </si>
+  <si>
+    <t>completed &amp; WIP</t>
+  </si>
+  <si>
+    <t>Vastu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vastu Mobile </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WIP</t>
+  </si>
+  <si>
+    <t>SAT &amp; SUN DAY</t>
+  </si>
+  <si>
+    <t>vastu Mobile and Kuroganeya Migration</t>
+  </si>
+  <si>
+    <t>soniya</t>
+  </si>
+  <si>
+    <t>Kuroganeya Migration</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>All denka Migration</t>
+  </si>
+  <si>
+    <t>vastu mobile</t>
+  </si>
+  <si>
+    <t>BIC Migration</t>
+  </si>
+  <si>
+    <t>vastu</t>
+  </si>
+  <si>
+    <t>issue fixing</t>
+  </si>
+  <si>
     <t>QMVAR</t>
   </si>
   <si>
-    <t>DRS Count - Saw Discount with out discount</t>
+    <t>daily_UnRepaipairset_NP</t>
+  </si>
+  <si>
+    <t>daily_UndeliveredSet</t>
+  </si>
+  <si>
+    <t>Daily_OS_specialtreatment</t>
+  </si>
+  <si>
+    <t>Soniya</t>
+  </si>
+  <si>
+    <t>nMvar Migration</t>
+  </si>
+  <si>
+    <t>nQGcare_ipad_bat Migration</t>
   </si>
 </sst>
 </file>
@@ -151,10 +223,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="128"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -195,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -244,6 +317,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -251,7 +386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -322,9 +457,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -608,15 +763,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -640,7 +795,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" s="24" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="24" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="25"/>
       <c r="B2" s="26"/>
       <c r="C2" s="25"/>
@@ -717,15 +872,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="72.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="72.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -850,15 +1005,15 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -957,19 +1112,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -995,24 +1150,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="32">
-        <v>44098</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1082,15 +1231,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1193,15 +1342,15 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1314,15 +1463,15 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1414,15 +1563,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1525,15 +1674,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1630,21 +1779,531 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19">
+        <v>44075</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19">
+        <v>44076</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19">
+        <v>44077</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19">
+        <v>44078</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19">
+        <v>44079</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19">
+        <v>44080</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19">
+        <v>44081</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19">
+        <v>44082</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19">
+        <v>44083</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19">
+        <v>44084</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19">
+        <v>44085</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19">
+        <v>44086</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19">
+        <v>44087</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19">
+        <v>44088</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19">
+        <v>44089</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19">
+        <v>44090</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19">
+        <v>44091</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19">
+        <v>44092</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19">
+        <v>44093</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19">
+        <v>44094</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19">
+        <v>44095</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19">
+        <v>44096</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19">
+        <v>44097</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19">
+        <v>44098</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="19">
+        <v>44099</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" s="12"/>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="13"/>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="C20:F21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1737,115 +2396,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1"/>
-    <row r="5" spans="1:7" s="1" customFormat="1"/>
-    <row r="6" spans="1:7" s="1" customFormat="1"/>
-    <row r="7" spans="1:7" s="1" customFormat="1"/>
-    <row r="8" spans="1:7" s="1" customFormat="1"/>
-    <row r="9" spans="1:7" s="1" customFormat="1"/>
-    <row r="10" spans="1:7" s="1" customFormat="1"/>
-    <row r="11" spans="1:7" s="1" customFormat="1"/>
-    <row r="12" spans="1:7" s="1" customFormat="1"/>
-    <row r="13" spans="1:7" s="1" customFormat="1"/>
-    <row r="14" spans="1:7" s="1" customFormat="1"/>
-    <row r="15" spans="1:7" s="1" customFormat="1"/>
-    <row r="16" spans="1:7" s="1" customFormat="1"/>
-    <row r="17" spans="2:3" s="1" customFormat="1"/>
-    <row r="18" spans="2:3" s="1" customFormat="1"/>
-    <row r="19" spans="2:3" s="1" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="10"/>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="11"/>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="12"/>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="13"/>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
 </file>
--- a/REVER_DailyTracker_20200924.xlsx
+++ b/REVER_DailyTracker_20200924.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4765D361-937E-4486-8035-9740FAB18BDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AD8A44-2BCF-47E4-A3CC-06B7DC6F4193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -1338,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1378,7 +1378,9 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5">
+        <v>44098</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1781,7 +1783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
